--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>811048.588633566</v>
+        <v>772060.3755634686</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9939568.555321708</v>
+        <v>9257225.343530988</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6427937.224972974</v>
+        <v>5370379.756827477</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9521931.2604075</v>
+        <v>9951380.064486265</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>404.7547197920061</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>87.62275275978043</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755661</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>137.9475420663029</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>11.39135506887331</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1040,7 +1040,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1068,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>44.58467420294768</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>313.5708165599417</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>127.7871454939606</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1299,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>161.3938591154054</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V11" t="n">
-        <v>26.94389492651078</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>57.27946483223655</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>99.32764374521086</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>193.7981713870603</v>
       </c>
       <c r="T13" t="n">
-        <v>220.5367941620016</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2244489913895</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.27732104186418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>1.173147076168964</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>282.4198387883761</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>61.44749355031655</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>206.1742023667267</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0364052149085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.275240877313</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>92.26024958059013</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I15" t="n">
-        <v>18.18624318344743</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S15" t="n">
-        <v>133.2658462320107</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
-        <v>191.828123840699</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8053112726921</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>193.7981713870603</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.5367941620016</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2244489913895</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>152.6049647870751</v>
+        <v>185.5541150305855</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.4371413535349</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>240.3478139608537</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>57.38876412871308</v>
       </c>
       <c r="T17" t="n">
-        <v>206.1742023667267</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0364052149085</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.275240877313</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>92.26024958059013</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.18624318344743</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
-        <v>133.2658462320107</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
-        <v>191.828123840699</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8053112726921</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>72.89138480951671</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>54.9389564044243</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.2570059982656</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>146.8105729959039</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>103.3051669679944</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>219.1834685212301</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>215.4281554461072</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.0059677968616</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.65963851412519</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>8.915218264396685</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.264216864854</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
-        <v>190.7427643629146</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7875959384519</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>37.89853860915522</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0312564930842</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.803454668018</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.51626366671985</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>164.1333512097372</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2326,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>145.2477902017521</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>61.60385878691237</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>196.9899243971807</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2557,13 +2557,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>316.8394310613677</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,7 +2572,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>200.8052136229447</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>131.4830860260163</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2730,10 +2730,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>398.5395890534232</v>
       </c>
       <c r="G29" t="n">
-        <v>284.4297735342296</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>31.95340287568516</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>150.2062474346973</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>46.29674764180429</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>100.5205878903133</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>112.9416910403793</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3246,16 +3246,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>145.4717465846017</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>89.90934007022265</v>
       </c>
       <c r="X35" t="n">
-        <v>243.2391485592445</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>203.4068132192031</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>104.259066017576</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>80.05671066664385</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>120.608807415961</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>19.36824379237541</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>77.31354443380452</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>120.6088074159611</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>131.9809553984406</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.7368957119604488</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>161.1495139657706</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3994,7 +3994,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>168.1158122680975</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>106.348965591524</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4146,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>21.77940929912568</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>11.16818915334145</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>880.7499412272343</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>880.7499412272343</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>880.7499412272343</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2553.612570478231</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2334.977903450294</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2081.216118088385</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1750.153230744814</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1750.153230744814</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X2" t="n">
-        <v>1750.153230744814</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y2" t="n">
-        <v>1750.153230744814</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="3">
@@ -4406,7 +4406,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4430,7 +4430,7 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064343</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064343</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>920.5121489496507</v>
+        <v>951.4629090302697</v>
       </c>
       <c r="C5" t="n">
-        <v>551.5496320092391</v>
+        <v>951.4629090302697</v>
       </c>
       <c r="D5" t="n">
-        <v>193.2839334024886</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="E5" t="n">
-        <v>193.2839334024886</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F5" t="n">
-        <v>193.2839334024886</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G5" t="n">
-        <v>193.2839334024886</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>193.2839334024886</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2454.436494601397</v>
       </c>
       <c r="W5" t="n">
-        <v>2070.717079250664</v>
+        <v>2101.667839331283</v>
       </c>
       <c r="X5" t="n">
-        <v>1697.251320989584</v>
+        <v>1728.202081070203</v>
       </c>
       <c r="Y5" t="n">
-        <v>1307.111989013772</v>
+        <v>1338.062749094391</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4655,16 +4655,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1167.455337753612</v>
+        <v>833.8914035503838</v>
       </c>
       <c r="C8" t="n">
-        <v>1167.455337753612</v>
+        <v>464.928886609972</v>
       </c>
       <c r="D8" t="n">
-        <v>1167.455337753612</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E8" t="n">
-        <v>781.6670851553677</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F8" t="n">
-        <v>370.6811803657601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4810,13 +4810,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2336.864989121511</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2336.864989121511</v>
       </c>
       <c r="V8" t="n">
-        <v>1893.689751284806</v>
+        <v>2336.864989121511</v>
       </c>
       <c r="W8" t="n">
-        <v>1540.921096014692</v>
+        <v>1984.096333851397</v>
       </c>
       <c r="X8" t="n">
-        <v>1167.455337753612</v>
+        <v>1610.630575590317</v>
       </c>
       <c r="Y8" t="n">
-        <v>1167.455337753612</v>
+        <v>1220.491243614505</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,19 +4883,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4907,7 +4907,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1166.959449965771</v>
+        <v>1429.334311399065</v>
       </c>
       <c r="C11" t="n">
-        <v>797.9969330253591</v>
+        <v>1429.334311399065</v>
       </c>
       <c r="D11" t="n">
-        <v>439.7312344186087</v>
+        <v>1266.310211282494</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036445</v>
+        <v>880.5219586842497</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036445</v>
+        <v>469.5360538946421</v>
       </c>
       <c r="G11" t="n">
         <v>53.94298182036445</v>
@@ -5068,25 +5068,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2574.994750559857</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.737980492456</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2113.16585401275</v>
       </c>
       <c r="V11" t="n">
-        <v>2669.933035536898</v>
+        <v>1782.102966669179</v>
       </c>
       <c r="W11" t="n">
-        <v>2317.164380266784</v>
+        <v>1429.334311399065</v>
       </c>
       <c r="X11" t="n">
-        <v>1943.698622005704</v>
+        <v>1429.334311399065</v>
       </c>
       <c r="Y11" t="n">
-        <v>1553.559290029893</v>
+        <v>1429.334311399065</v>
       </c>
     </row>
     <row r="12">
@@ -5120,7 +5120,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>246.6565409677914</v>
+        <v>121.8264159807866</v>
       </c>
       <c r="K12" t="n">
         <v>537.8115956207102</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D13" t="n">
         <v>53.94298182036445</v>
@@ -5223,28 +5223,28 @@
         <v>1687.816392302165</v>
       </c>
       <c r="R13" t="n">
-        <v>1587.485439024174</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="S13" t="n">
-        <v>1391.729710350376</v>
+        <v>1492.060663628367</v>
       </c>
       <c r="T13" t="n">
-        <v>1168.9652718029</v>
+        <v>1492.060663628367</v>
       </c>
       <c r="U13" t="n">
-        <v>879.8496667610921</v>
+        <v>1202.945058586559</v>
       </c>
       <c r="V13" t="n">
-        <v>625.1651785552052</v>
+        <v>948.2605703806724</v>
       </c>
       <c r="W13" t="n">
-        <v>335.7480085182446</v>
+        <v>658.8434003437119</v>
       </c>
       <c r="X13" t="n">
-        <v>107.7584576202273</v>
+        <v>430.8538494456946</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>430.8538494456946</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>401.2837215564177</v>
+        <v>1934.181533884357</v>
       </c>
       <c r="C14" t="n">
-        <v>401.2837215564177</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="D14" t="n">
-        <v>401.2837215564177</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E14" t="n">
-        <v>401.2837215564177</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F14" t="n">
-        <v>401.2837215564177</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>401.2837215564177</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H14" t="n">
-        <v>116.0111571237145</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
-        <v>199.5143021373487</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>468.42649406655</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>838.9376088552594</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1282.872051350724</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>1738.603625623768</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2155.602766936376</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P14" t="n">
-        <v>2477.000885571628</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q14" t="n">
-        <v>2670.18474111696</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T14" t="n">
-        <v>2488.892320950822</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>2235.320194471116</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V14" t="n">
-        <v>1904.257307127545</v>
+        <v>2678.274518176919</v>
       </c>
       <c r="W14" t="n">
-        <v>1551.488651857431</v>
+        <v>2325.505862906804</v>
       </c>
       <c r="X14" t="n">
-        <v>1178.022893596351</v>
+        <v>2325.505862906804</v>
       </c>
       <c r="Y14" t="n">
-        <v>787.8835616205395</v>
+        <v>1935.366530930993</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3062050962127</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8531758150857</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9187661538344</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E15" t="n">
-        <v>448.681311148379</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F15" t="n">
-        <v>302.146753175264</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G15" t="n">
-        <v>165.5050957234327</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>72.31292442990731</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>121.8264159807866</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K15" t="n">
-        <v>316.0048420001851</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L15" t="n">
-        <v>983.5492420271951</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1361.650047680996</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1805.850811914303</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O15" t="n">
-        <v>2151.855116950616</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P15" t="n">
-        <v>2410.22100977735</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q15" t="n">
-        <v>2533.012570513408</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R15" t="n">
-        <v>2560.986726597623</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2426.374760706703</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2232.608979049431</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.522806046712</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1769.370697814969</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.133341086767</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.281840881235</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.521542116281</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>678.6720730524787</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>509.7358901245718</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>359.6192507122361</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>359.6192507122361</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
-        <v>82.8833909048594</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K16" t="n">
-        <v>260.2782098866545</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>542.8089378877603</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M16" t="n">
-        <v>851.0870999282808</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N16" t="n">
-        <v>1157.469712732903</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O16" t="n">
-        <v>1424.447349606354</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>1629.372157534689</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q16" t="n">
-        <v>1687.816392302165</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1687.816392302165</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1492.060663628367</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1269.296225080891</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U16" t="n">
-        <v>980.1806200390829</v>
+        <v>1638.191681214137</v>
       </c>
       <c r="V16" t="n">
-        <v>725.496131833196</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="W16" t="n">
-        <v>436.0789617962354</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X16" t="n">
-        <v>208.0894108982181</v>
+        <v>866.1004720732722</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>678.6720730524787</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1509.085780939922</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C17" t="n">
-        <v>1509.085780939922</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D17" t="n">
-        <v>1509.085780939922</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E17" t="n">
-        <v>1123.297528341678</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>712.3116235520702</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>296.7185514777925</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>199.5143021373487</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>468.42649406655</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L17" t="n">
-        <v>838.9376088552594</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1282.872051350724</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>1738.603625623768</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2155.602766936376</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>2477.000885571628</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>2670.18474111696</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>3267.63737299431</v>
       </c>
       <c r="T17" t="n">
-        <v>2488.892320950822</v>
+        <v>3061.659625378532</v>
       </c>
       <c r="U17" t="n">
-        <v>2235.320194471116</v>
+        <v>2808.129148652368</v>
       </c>
       <c r="V17" t="n">
-        <v>2235.320194471116</v>
+        <v>2808.129148652368</v>
       </c>
       <c r="W17" t="n">
-        <v>1882.551539201002</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="X17" t="n">
-        <v>1509.085780939922</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y17" t="n">
-        <v>1509.085780939922</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>931.3062050962127</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>756.8531758150857</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>607.9187661538344</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>448.681311148379</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>302.146753175264</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>165.5050957234327</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>72.31292442990731</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>121.8264159807866</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>316.0048420001851</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>623.4242400445569</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1166.280567971507</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1833.824967998518</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2179.829273034831</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2438.195165861565</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2560.986726597623</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2560.986726597623</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2426.374760706703</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2232.608979049431</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2004.522806046712</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1769.370697814969</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1515.133341086767</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1307.281840881235</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1099.521542116281</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>995.9581782914348</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C19" t="n">
-        <v>827.0219953635279</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D19" t="n">
-        <v>676.9053559511922</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E19" t="n">
-        <v>621.4114605931878</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>474.5215130952774</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>306.5851434000597</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>158.2916353233891</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>82.8833909048594</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>260.2782098866545</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>542.8089378877603</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>851.0870999282808</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1157.469712732903</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1424.447349606354</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1629.372157534689</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1687.816392302165</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1687.816392302165</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1687.816392302165</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1687.816392302165</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U19" t="n">
-        <v>1687.816392302165</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V19" t="n">
-        <v>1687.816392302165</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.399222265205</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X19" t="n">
-        <v>1398.399222265205</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y19" t="n">
-        <v>1177.606643121675</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1807.822491904844</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C20" t="n">
-        <v>1438.859974964432</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D20" t="n">
-        <v>1080.594276357682</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E20" t="n">
-        <v>694.8060237594373</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F20" t="n">
-        <v>283.8201189698297</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G20" t="n">
-        <v>66.21592154951942</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>66.21592154951942</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.21592154951942</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>254.0744928369593</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>586.3643121319019</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1035.500977900981</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1566.921495383895</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2111.55476080156</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2612.501248106873</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3005.546484356408</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3252.53434141264</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3310.796077475971</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3310.796077475971</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3310.796077475971</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U20" t="n">
-        <v>3310.796077475971</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V20" t="n">
-        <v>3310.796077475971</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W20" t="n">
-        <v>2958.027422205857</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X20" t="n">
-        <v>2584.561663944777</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2194.422331968965</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>931.3156003142899</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>756.8625710331629</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>607.9281613719115</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>448.690706366456</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>302.156148393341</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>165.7864839520666</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H21" t="n">
-        <v>75.22119252365748</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I21" t="n">
-        <v>66.21592154951942</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>159.2853526912741</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>396.510659118347</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>761.8119001858311</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
-        <v>1207.458086537445</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1679.307846295919</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2088.738397943176</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2398.00944543187</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2554.829753957941</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2554.829753957941</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2425.269938942937</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2232.600479990498</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2004.532201264789</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
-        <v>1769.380093033046</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1515.142736304845</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1307.291236099312</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1099.530937334358</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2480.682309693608</v>
+        <v>567.2993462682277</v>
       </c>
       <c r="C22" t="n">
-        <v>2311.746126765701</v>
+        <v>567.2993462682277</v>
       </c>
       <c r="D22" t="n">
-        <v>2161.629487353365</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
-        <v>2013.716393770972</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>1866.826446273062</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>1699.118106381058</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>1552.851990554777</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>1455.360815133848</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>1500.102109334507</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>1703.462636402271</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>2019.220531073012</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2362.532081574125</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>2703.115067165219</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3001.682283797719</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3233.637434478459</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3310.796077475971</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>3310.796077475971</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>3310.796077475971</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>3310.796077475971</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>3145.004813627752</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V22" t="n">
-        <v>2890.320325421865</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W22" t="n">
-        <v>2890.320325421865</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="X22" t="n">
-        <v>2662.330774523848</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="Y22" t="n">
-        <v>2662.330774523848</v>
+        <v>748.9478110984675</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1091.323932370578</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>722.3614154301667</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>364.0957168234162</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>364.0957168234162</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>364.0957168234162</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>3178.890882011441</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>2925.360405285277</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>2594.297517941706</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>2241.528862671592</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>1868.063104410512</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>1477.9237724347</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811082</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999812</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>618.15641553873</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332745</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601595</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927781</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064576</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533341</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125856</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619336</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297192</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199865</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471663</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1562.149067134515</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="C25" t="n">
-        <v>1562.149067134515</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="D25" t="n">
-        <v>1562.149067134515</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="E25" t="n">
-        <v>1562.149067134515</v>
+        <v>304.6771019330849</v>
       </c>
       <c r="F25" t="n">
-        <v>1562.149067134515</v>
+        <v>157.7871544351746</v>
       </c>
       <c r="G25" t="n">
-        <v>1562.149067134515</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>1562.149067134515</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.823389952861</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>1509.946022399796</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>1713.933205348673</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>2030.493003797169</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>2374.650049396718</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>2716.058426102582</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>3015.388025022996</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>3247.995525456655</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.60582160917</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>3235.775364366698</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>3044.089480193524</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>2822.32286476305</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U25" t="n">
-        <v>2533.219997888694</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V25" t="n">
-        <v>2278.535509682807</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W25" t="n">
-        <v>1989.118339645846</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X25" t="n">
-        <v>1761.128788747829</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y25" t="n">
-        <v>1562.149067134515</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1619.798686923957</v>
+        <v>2266.816986939758</v>
       </c>
       <c r="C26" t="n">
-        <v>1250.836169983545</v>
+        <v>1946.777157584841</v>
       </c>
       <c r="D26" t="n">
-        <v>892.5704713767946</v>
+        <v>1588.511458978091</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>1202.723206379846</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>791.7373015902388</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>376.6648514352352</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>79.0812510440024</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>79.0812510440024</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>435.3660310233809</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>769.1854047132274</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1220.219617961636</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1753.751522633561</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2300.530339692343</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2803.50281057168</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3371.508027460077</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3829.986229969065</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3954.06255220012</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3954.06255220012</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3748.084804584342</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.60582160917</v>
+        <v>3748.084804584342</v>
       </c>
       <c r="V26" t="n">
-        <v>3122.772272495085</v>
+        <v>3417.021917240771</v>
       </c>
       <c r="W26" t="n">
-        <v>2770.00361722497</v>
+        <v>3417.021917240771</v>
       </c>
       <c r="X26" t="n">
-        <v>2396.53785896389</v>
+        <v>3043.556158979692</v>
       </c>
       <c r="Y26" t="n">
-        <v>2006.398526988078</v>
+        <v>2653.41682700388</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>954.1129890929277</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>779.6599598118007</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>630.7255501505495</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>471.4880951450939</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>324.9535371719788</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>188.5904370045969</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>98.08854264246443</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>79.0812510440024</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>172.7585205346197</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>411.0227195149669</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>777.7208798276322</v>
       </c>
       <c r="M27" t="n">
-        <v>1212.428070438129</v>
+        <v>1224.997205049948</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1698.520248604403</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410638</v>
+        <v>2109.481528022457</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886741</v>
+        <v>2419.98111949856</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.053542533341</v>
+        <v>2577.62267714516</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125856</v>
+        <v>2577.478323737676</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619336</v>
+        <v>2448.040437231155</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297192</v>
+        <v>2255.397436909011</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2027.329590043427</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199865</v>
+        <v>1792.177481811684</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471663</v>
+        <v>1537.940125083482</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1330.08862487795</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1122.328326112996</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1091.613680441807</v>
+        <v>860.6399510898295</v>
       </c>
       <c r="C28" t="n">
-        <v>922.6774975139006</v>
+        <v>691.7037681619227</v>
       </c>
       <c r="D28" t="n">
-        <v>772.5608581015648</v>
+        <v>541.5871287495869</v>
       </c>
       <c r="E28" t="n">
-        <v>624.6477645191717</v>
+        <v>393.6740351671938</v>
       </c>
       <c r="F28" t="n">
-        <v>477.7578170212613</v>
+        <v>246.7840876692835</v>
       </c>
       <c r="G28" t="n">
-        <v>310.0549803959802</v>
+        <v>79.0812510440024</v>
       </c>
       <c r="H28" t="n">
-        <v>163.837793613838</v>
+        <v>79.0812510440024</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>79.0812510440024</v>
       </c>
       <c r="J28" t="n">
-        <v>111.634748879119</v>
+        <v>124.203883490938</v>
       </c>
       <c r="K28" t="n">
-        <v>315.6219318279954</v>
+        <v>328.1910664398143</v>
       </c>
       <c r="L28" t="n">
-        <v>632.1817302764914</v>
+        <v>644.7508648883104</v>
       </c>
       <c r="M28" t="n">
-        <v>976.3387758760405</v>
+        <v>988.9079104878595</v>
       </c>
       <c r="N28" t="n">
-        <v>1317.747152581905</v>
+        <v>1330.316287193724</v>
       </c>
       <c r="O28" t="n">
-        <v>1617.076751502319</v>
+        <v>1629.645886114138</v>
       </c>
       <c r="P28" t="n">
-        <v>1849.684251935978</v>
+        <v>1862.253386547797</v>
       </c>
       <c r="Q28" t="n">
-        <v>1927.294548088493</v>
+        <v>1939.863682700312</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>1939.863682700312</v>
       </c>
       <c r="S28" t="n">
-        <v>1735.608663915319</v>
+        <v>1939.863682700312</v>
       </c>
       <c r="T28" t="n">
-        <v>1513.842048484845</v>
+        <v>1745.755034167503</v>
       </c>
       <c r="U28" t="n">
-        <v>1513.842048484845</v>
+        <v>1745.755034167503</v>
       </c>
       <c r="V28" t="n">
-        <v>1513.842048484845</v>
+        <v>1491.070545961617</v>
       </c>
       <c r="W28" t="n">
-        <v>1224.424878447885</v>
+        <v>1491.070545961617</v>
       </c>
       <c r="X28" t="n">
-        <v>1224.424878447885</v>
+        <v>1263.080995063599</v>
       </c>
       <c r="Y28" t="n">
-        <v>1224.424878447885</v>
+        <v>1042.288415920069</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2175.400891308157</v>
+        <v>2009.735410812517</v>
       </c>
       <c r="C29" t="n">
-        <v>1806.438374367745</v>
+        <v>1640.772893872105</v>
       </c>
       <c r="D29" t="n">
-        <v>1448.172675760995</v>
+        <v>1282.507195265355</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.384423162751</v>
+        <v>896.7189426671102</v>
       </c>
       <c r="F29" t="n">
-        <v>651.3985183731431</v>
+        <v>494.1537011990059</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>79.0812510440024</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>79.0812510440024</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>79.0812510440024</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>435.3660310233809</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>769.1854047132274</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1220.219617961636</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1753.751522633561</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2300.530339692343</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2976.733661102899</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3371.508027460077</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3829.986229969065</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3954.06255220012</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3843.771883727215</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3843.771883727215</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.605821609171</v>
+        <v>3843.771883727215</v>
       </c>
       <c r="V29" t="n">
-        <v>3325.605821609171</v>
+        <v>3512.708996383644</v>
       </c>
       <c r="W29" t="n">
-        <v>3325.605821609171</v>
+        <v>3159.94034111353</v>
       </c>
       <c r="X29" t="n">
-        <v>2952.140063348091</v>
+        <v>2786.47458285245</v>
       </c>
       <c r="Y29" t="n">
-        <v>2562.000731372279</v>
+        <v>2396.335250876638</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>954.1129890929277</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>779.6599598118007</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>630.7255501505495</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>471.4880951450939</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>324.9535371719788</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>188.5904370045969</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>98.08854264246443</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>79.0812510440024</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>172.7585205346197</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>411.0227195149669</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>777.7208798276322</v>
       </c>
       <c r="M30" t="n">
-        <v>1212.428070438129</v>
+        <v>1224.997205049948</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1698.520248604403</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410638</v>
+        <v>2109.481528022457</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>2419.98111949856</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.053542533341</v>
+        <v>2577.62267714516</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125856</v>
+        <v>2577.478323737676</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619336</v>
+        <v>2448.040437231155</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297192</v>
+        <v>2255.397436909011</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2027.329590043427</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199865</v>
+        <v>1792.177481811684</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471663</v>
+        <v>1537.940125083482</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1330.08862487795</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1122.328326112996</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1091.613680441807</v>
+        <v>692.9371144645485</v>
       </c>
       <c r="C31" t="n">
-        <v>922.6774975139006</v>
+        <v>524.0009315366416</v>
       </c>
       <c r="D31" t="n">
-        <v>772.5608581015648</v>
+        <v>373.8842921243059</v>
       </c>
       <c r="E31" t="n">
-        <v>624.6477645191717</v>
+        <v>225.9711985419128</v>
       </c>
       <c r="F31" t="n">
-        <v>477.7578170212613</v>
+        <v>79.0812510440024</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959803</v>
+        <v>79.0812510440024</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8377936138381</v>
+        <v>79.0812510440024</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>79.0812510440024</v>
       </c>
       <c r="J31" t="n">
-        <v>111.634748879119</v>
+        <v>124.203883490938</v>
       </c>
       <c r="K31" t="n">
-        <v>315.6219318279954</v>
+        <v>328.1910664398143</v>
       </c>
       <c r="L31" t="n">
-        <v>632.1817302764914</v>
+        <v>644.7508648883104</v>
       </c>
       <c r="M31" t="n">
-        <v>976.3387758760405</v>
+        <v>988.9079104878595</v>
       </c>
       <c r="N31" t="n">
-        <v>1317.747152581905</v>
+        <v>1330.316287193724</v>
       </c>
       <c r="O31" t="n">
-        <v>1617.076751502319</v>
+        <v>1629.645886114138</v>
       </c>
       <c r="P31" t="n">
-        <v>1849.684251935978</v>
+        <v>1862.253386547797</v>
       </c>
       <c r="Q31" t="n">
-        <v>1927.294548088493</v>
+        <v>1939.863682700312</v>
       </c>
       <c r="R31" t="n">
-        <v>1837.464090846021</v>
+        <v>1939.863682700312</v>
       </c>
       <c r="S31" t="n">
-        <v>1645.778206672847</v>
+        <v>1939.863682700312</v>
       </c>
       <c r="T31" t="n">
-        <v>1645.778206672847</v>
+        <v>1718.097067269838</v>
       </c>
       <c r="U31" t="n">
-        <v>1645.778206672847</v>
+        <v>1718.097067269838</v>
       </c>
       <c r="V31" t="n">
-        <v>1645.778206672847</v>
+        <v>1463.412579063951</v>
       </c>
       <c r="W31" t="n">
-        <v>1645.778206672847</v>
+        <v>1173.99540902699</v>
       </c>
       <c r="X31" t="n">
-        <v>1494.054724415577</v>
+        <v>946.0058581289727</v>
       </c>
       <c r="Y31" t="n">
-        <v>1273.262145272047</v>
+        <v>725.2132789854426</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1632.511388127729</v>
+        <v>2315.739674525253</v>
       </c>
       <c r="C32" t="n">
-        <v>1263.548871187317</v>
+        <v>1946.777157584841</v>
       </c>
       <c r="D32" t="n">
-        <v>905.2831725805665</v>
+        <v>1588.511458978091</v>
       </c>
       <c r="E32" t="n">
-        <v>519.4949199823222</v>
+        <v>1202.723206379846</v>
       </c>
       <c r="F32" t="n">
-        <v>108.5090151927147</v>
+        <v>791.7373015902388</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>376.6648514352352</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>79.0812510440024</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>79.0812510440024</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>435.3660310233809</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>769.1854047132274</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1220.219617961636</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1753.751522633561</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2300.530339692343</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2803.50281057168</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3371.508027460077</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3829.986229969065</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3954.06255220012</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3843.771883727215</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3843.771883727215</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136266</v>
+        <v>3797.007492169837</v>
       </c>
       <c r="V32" t="n">
-        <v>2884.252265792695</v>
+        <v>3465.944604826266</v>
       </c>
       <c r="W32" t="n">
-        <v>2782.716318428742</v>
+        <v>3465.944604826266</v>
       </c>
       <c r="X32" t="n">
-        <v>2409.250560167662</v>
+        <v>3092.478846565186</v>
       </c>
       <c r="Y32" t="n">
-        <v>2019.11122819185</v>
+        <v>2702.339514589375</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811095</v>
+        <v>954.1129890929274</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999825</v>
+        <v>779.6599598118004</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387314</v>
+        <v>630.7255501505492</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332758</v>
+        <v>471.4880951450937</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601609</v>
+        <v>324.9535371719787</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927789</v>
+        <v>188.5904370045973</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064583</v>
+        <v>98.08854264246474</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>79.0812510440024</v>
       </c>
       <c r="J33" t="n">
-        <v>160.189385922801</v>
+        <v>172.7585205346197</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031484</v>
+        <v>411.0227195149669</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158141</v>
+        <v>777.7208798276321</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.42807043813</v>
+        <v>1224.997205049948</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1698.520248604402</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410639</v>
+        <v>2109.481528022457</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886742</v>
+        <v>2419.98111949856</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533342</v>
+        <v>2577.62267714516</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125858</v>
+        <v>2577.478323737676</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619338</v>
+        <v>2448.040437231155</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297193</v>
+        <v>2255.397436909011</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431609</v>
+        <v>2027.329590043427</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199866</v>
+        <v>1792.177481811684</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471664</v>
+        <v>1537.940125083482</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1330.088624877949</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501178</v>
+        <v>1122.328326112995</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1876.069090541939</v>
+        <v>542.8204750522128</v>
       </c>
       <c r="C34" t="n">
-        <v>1876.069090541939</v>
+        <v>373.8842921243059</v>
       </c>
       <c r="D34" t="n">
-        <v>1876.069090541939</v>
+        <v>373.8842921243059</v>
       </c>
       <c r="E34" t="n">
-        <v>1876.069090541939</v>
+        <v>225.9711985419128</v>
       </c>
       <c r="F34" t="n">
-        <v>1876.069090541939</v>
+        <v>79.0812510440024</v>
       </c>
       <c r="G34" t="n">
-        <v>1708.366253916658</v>
+        <v>79.0812510440024</v>
       </c>
       <c r="H34" t="n">
-        <v>1562.149067134516</v>
+        <v>79.0812510440024</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952861</v>
+        <v>79.0812510440024</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399797</v>
+        <v>124.203883490938</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348673</v>
+        <v>328.1910664398143</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.493003797169</v>
+        <v>644.7508648883104</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396718</v>
+        <v>988.9079104878595</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102583</v>
+        <v>1330.316287193724</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022996</v>
+        <v>1629.645886114138</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456656</v>
+        <v>1862.253386547797</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>1939.863682700312</v>
       </c>
       <c r="R34" t="n">
-        <v>3235.775364366698</v>
+        <v>1939.863682700312</v>
       </c>
       <c r="S34" t="n">
-        <v>3044.089480193525</v>
+        <v>1939.863682700312</v>
       </c>
       <c r="T34" t="n">
-        <v>2822.322864763051</v>
+        <v>1718.097067269838</v>
       </c>
       <c r="U34" t="n">
-        <v>2533.219997888694</v>
+        <v>1428.994200395481</v>
       </c>
       <c r="V34" t="n">
-        <v>2386.27883972243</v>
+        <v>1174.309712189594</v>
       </c>
       <c r="W34" t="n">
-        <v>2096.861669685469</v>
+        <v>884.8925421526335</v>
       </c>
       <c r="X34" t="n">
-        <v>2096.861669685469</v>
+        <v>656.9029912546162</v>
       </c>
       <c r="Y34" t="n">
-        <v>1876.069090541939</v>
+        <v>656.9029912546162</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2303.170539913434</v>
+        <v>2018.15607413402</v>
       </c>
       <c r="C35" t="n">
-        <v>1934.208022973022</v>
+        <v>1649.193557193608</v>
       </c>
       <c r="D35" t="n">
-        <v>1575.942324366272</v>
+        <v>1290.927858586858</v>
       </c>
       <c r="E35" t="n">
-        <v>1190.154071768027</v>
+        <v>905.1396059886135</v>
       </c>
       <c r="F35" t="n">
-        <v>779.1681669784198</v>
+        <v>494.1537011990059</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>79.0812510440024</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>79.0812510440024</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>79.0812510440024</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>267.9603820030279</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>601.7797556928743</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1052.813968941283</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>2031.364271771112</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2749.01228665112</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>3251.984757530457</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3646.759123887635</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3895.045485643318</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3954.06255220012</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3843.771883727215</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.60582160917</v>
+        <v>3843.771883727215</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.60582160917</v>
+        <v>3590.241407001051</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.60582160917</v>
+        <v>3259.178519657481</v>
       </c>
       <c r="W35" t="n">
-        <v>3325.60582160917</v>
+        <v>3168.361004435033</v>
       </c>
       <c r="X35" t="n">
-        <v>3079.909711953368</v>
+        <v>2794.895246173954</v>
       </c>
       <c r="Y35" t="n">
-        <v>2689.770379977556</v>
+        <v>2404.755914198142</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>954.1129890929274</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>779.6599598118004</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>630.7255501505492</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>471.4880951450937</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>324.9535371719787</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>188.5904370045971</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>98.08854264246474</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>79.0812510440024</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>172.7585205346195</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>411.0227195149666</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>777.720879827632</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.428070438129</v>
+        <v>1224.997205049948</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1698.520248604402</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2109.481528022457</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2419.98111949856</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2577.62267714516</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2577.478323737676</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2448.040437231155</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2255.397436909011</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2027.329590043427</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1792.177481811684</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1537.940125083482</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1330.088624877949</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1122.328326112995</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.5121164321834</v>
+        <v>692.9371144645485</v>
       </c>
       <c r="C37" t="n">
-        <v>66.5121164321834</v>
+        <v>524.0009315366416</v>
       </c>
       <c r="D37" t="n">
-        <v>66.5121164321834</v>
+        <v>373.8842921243059</v>
       </c>
       <c r="E37" t="n">
-        <v>66.5121164321834</v>
+        <v>225.9711985419128</v>
       </c>
       <c r="F37" t="n">
-        <v>66.5121164321834</v>
+        <v>79.0812510440024</v>
       </c>
       <c r="G37" t="n">
-        <v>66.5121164321834</v>
+        <v>79.0812510440024</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>79.0812510440024</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>79.0812510440024</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>124.203883490938</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>328.1910664398143</v>
       </c>
       <c r="L37" t="n">
-        <v>632.1817302764914</v>
+        <v>644.7508648883104</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>988.9079104878595</v>
       </c>
       <c r="N37" t="n">
-        <v>1317.747152581905</v>
+        <v>1330.316287193724</v>
       </c>
       <c r="O37" t="n">
-        <v>1617.076751502319</v>
+        <v>1629.645886114138</v>
       </c>
       <c r="P37" t="n">
-        <v>1849.684251935978</v>
+        <v>1862.253386547797</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>1939.863682700312</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1939.863682700312</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1939.863682700312</v>
       </c>
       <c r="T37" t="n">
-        <v>1530.147236421175</v>
+        <v>1718.097067269838</v>
       </c>
       <c r="U37" t="n">
-        <v>1241.044369546818</v>
+        <v>1718.097067269838</v>
       </c>
       <c r="V37" t="n">
-        <v>986.3598813409312</v>
+        <v>1612.784879373296</v>
       </c>
       <c r="W37" t="n">
-        <v>696.9427113039706</v>
+        <v>1323.367709336336</v>
       </c>
       <c r="X37" t="n">
-        <v>468.9531604059532</v>
+        <v>1095.378158438318</v>
       </c>
       <c r="Y37" t="n">
-        <v>248.1605812624231</v>
+        <v>874.5855792947882</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1285.591601078694</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C38" t="n">
-        <v>916.6290841382827</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D38" t="n">
-        <v>558.3633855315322</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E38" t="n">
         <v>477.498021221791</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7192,34 +7192,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>3119.628073993393</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="V38" t="n">
-        <v>2788.565186649822</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W38" t="n">
-        <v>2435.796531379708</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X38" t="n">
-        <v>2062.330773118628</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y38" t="n">
-        <v>1672.191441142816</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="39">
@@ -7244,22 +7244,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7271,7 +7271,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>385.5649387724261</v>
+        <v>530.9956795433836</v>
       </c>
       <c r="C40" t="n">
-        <v>216.6287558445192</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218342</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7353,31 +7353,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T40" t="n">
-        <v>1849.200058761417</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U40" t="n">
-        <v>1560.097191887061</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="V40" t="n">
-        <v>1305.412703681174</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W40" t="n">
-        <v>1015.995533644213</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X40" t="n">
-        <v>788.005982746196</v>
+        <v>933.4367235171535</v>
       </c>
       <c r="Y40" t="n">
-        <v>567.2134036026658</v>
+        <v>712.6441443736234</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1712.341567565138</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C41" t="n">
-        <v>1343.379050624726</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D41" t="n">
-        <v>985.1133520179758</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="E41" t="n">
-        <v>599.3250994197315</v>
+        <v>1067.881466499387</v>
       </c>
       <c r="F41" t="n">
-        <v>188.3391946301239</v>
+        <v>656.8955617097795</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>241.8231115547759</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7438,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W41" t="n">
-        <v>2862.546497866151</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X41" t="n">
-        <v>2489.080739605071</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y41" t="n">
-        <v>2098.94140762926</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
         <v>2407.411984886741</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>630.8037095364738</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="C43" t="n">
-        <v>461.8675266085669</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D43" t="n">
-        <v>311.7508871962312</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E43" t="n">
-        <v>163.8377936138381</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7590,31 +7590,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>1424.011591242373</v>
+        <v>1704.783593555029</v>
       </c>
       <c r="V43" t="n">
-        <v>1424.011591242373</v>
+        <v>1450.099105349142</v>
       </c>
       <c r="W43" t="n">
-        <v>1261.234304408261</v>
+        <v>1160.681935312181</v>
       </c>
       <c r="X43" t="n">
-        <v>1033.244753510244</v>
+        <v>932.6923844141637</v>
       </c>
       <c r="Y43" t="n">
-        <v>812.4521743667135</v>
+        <v>711.8998052706336</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2175.400891308158</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C44" t="n">
-        <v>1806.438374367746</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D44" t="n">
-        <v>1448.172675760996</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.384423162752</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>651.398518373144</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>236.3260682181405</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609171</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W44" t="n">
-        <v>3325.605821609171</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X44" t="n">
-        <v>2952.140063348092</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y44" t="n">
-        <v>2562.00073137228</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="45">
@@ -7718,22 +7718,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>555.4774356872693</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C46" t="n">
-        <v>386.5412527593625</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D46" t="n">
-        <v>236.4246133470267</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E46" t="n">
-        <v>88.51151976463362</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7830,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U46" t="n">
-        <v>1548.361223971664</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V46" t="n">
-        <v>1293.676735765777</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W46" t="n">
-        <v>1004.259565728817</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X46" t="n">
-        <v>776.2700148307995</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y46" t="n">
-        <v>555.4774356872693</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360584</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>97.9561905389096</v>
+        <v>224.0472258793184</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9011,13 +9011,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>363.7626282652911</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>42.10516203248739</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9251,10 +9251,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>166.4197194678277</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>267.7047941473395</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>17.26494649393209</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.5463950602909904</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,16 +9643,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>174.980657102241</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>174.9806571022409</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>174.980657102241</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10594,10 +10594,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>172.5951493143697</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>-9.023892744153272e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22558,16 +22558,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.121325949705295</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>86.79296004919111</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22713,22 +22713,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890125</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -22761,13 +22761,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22786,13 +22786,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22804,7 +22804,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>13.98377417855838</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>316.3609034012616</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>122.7251280561032</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22998,7 +22998,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23007,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>100.2133534608533</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -23068,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>88.66117486369723</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23187,22 +23187,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23235,16 +23235,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>131.0703856053966</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>193.2891825052775</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.4371413535349</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>299.8862654257798</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>120.9327970537822</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.1742023667267</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0364052149085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8083635436241</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>122.5525153497007</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>165.3073323102306</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>381.5606945873116</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.4371413535349</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>17.46642663740363</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>120.9327970537822</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.2570059982656</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>146.8105729959039</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>103.3051669679944</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>99.32764374521086</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>65.9796885650197</v>
+        <v>33.03053832150928</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>59.53845146492606</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>61.44749355031655</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>120.9327970537822</v>
+        <v>51.79899765946276</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>94.35543628911113</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>91.49500624214487</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>99.32764374521086</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>193.7981713870603</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>220.5367941620016</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2244489913895</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>163.5503731422505</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23980,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>195.5057161105865</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.7321536188797</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>42.04518470759564</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.464536558263</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9711388310543</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9961436311612</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>110.7169344090571</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>89.17712508496183</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.8639731922165</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5722280944081</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>122.0787841722787</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24214,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>58.67017993786803</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>104.4219494721159</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>21.59472895491413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,13 +24445,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>48.4334607096398</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24496,16 +24496,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>126.9470448471902</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>48.34889415592096</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>27.38138722868902</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>8.336456688288195</v>
       </c>
       <c r="G29" t="n">
-        <v>126.4919521192238</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -24739,10 +24739,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>147.8785773062521</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>75.50340795433985</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,13 +24973,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>204.6984243170977</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>248.7203808270997</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>66.89028914155801</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>106.6658967392263</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>259.3316286471904</v>
       </c>
       <c r="X35" t="n">
-        <v>126.4919521192246</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25362,16 +25362,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>16.14213605696608</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>147.878577306252</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>301.8736594056179</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>130.386364542941</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>147.8785773062524</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>142.2354048423647</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>290.3129182374923</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>162.6268089888798</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>285.4749424936524</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>125.3734843708204</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>126.491952119223</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -25924,13 +25924,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>263.382135086945</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>123.6416387238056</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>214.5414662356957</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>784886.8917865067</v>
+        <v>784886.8917865066</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>784886.8917865065</v>
+        <v>784886.8917865066</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>784886.8917865067</v>
+        <v>784886.8917865066</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>788088.8099581593</v>
+        <v>788088.8099581592</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>788088.8099581593</v>
+        <v>856762.3551823884</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>788088.8099581592</v>
+        <v>856762.3551823882</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855142.5348868504</v>
+        <v>856762.3551823882</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>856762.3551823882</v>
+        <v>1017002.276962772</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>856762.3551823881</v>
+        <v>926096.3367758169</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>856762.3551823883</v>
+        <v>926096.3367758167</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>856762.3551823883</v>
+        <v>926096.3367758166</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>856762.3551823882</v>
+        <v>926096.3367758167</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>856762.3551823882</v>
+        <v>856762.355182388</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>856762.3551823882</v>
+        <v>856762.3551823881</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>856762.3551823883</v>
+        <v>856762.3551823881</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>289152.6100157576</v>
+      </c>
+      <c r="C2" t="n">
         <v>289152.6100157575</v>
       </c>
-      <c r="C2" t="n">
-        <v>289152.6100157574</v>
-      </c>
       <c r="D2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="E2" t="n">
-        <v>312157.9037460885</v>
+        <v>312157.9037460884</v>
       </c>
       <c r="F2" t="n">
-        <v>312157.9037460886</v>
+        <v>340997.0989709208</v>
       </c>
       <c r="G2" t="n">
-        <v>312157.9037460884</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="H2" t="n">
-        <v>340317.4959346297</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="I2" t="n">
-        <v>340997.0989709203</v>
+        <v>397081.786886983</v>
       </c>
       <c r="J2" t="n">
-        <v>340997.0989709205</v>
+        <v>365264.3020276903</v>
       </c>
       <c r="K2" t="n">
-        <v>340997.0989709205</v>
+        <v>365264.3020276903</v>
       </c>
       <c r="L2" t="n">
-        <v>340997.0989709206</v>
+        <v>365264.3020276902</v>
       </c>
       <c r="M2" t="n">
-        <v>340997.0989709204</v>
+        <v>365264.3020276903</v>
       </c>
       <c r="N2" t="n">
         <v>340997.0989709205</v>
@@ -26377,19 +26377,19 @@
         <v>469045.4557502363</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>146359.9793562354</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>137249.4750168563</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3258.831101311813</v>
+        <v>96558.96659736047</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>122525.2635793587</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>36262.54819424119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,7 +26420,7 @@
         <v>62518.47524617217</v>
       </c>
       <c r="C4" t="n">
-        <v>62518.47524617216</v>
+        <v>62518.47524617217</v>
       </c>
       <c r="D4" t="n">
         <v>62518.47524617217</v>
@@ -26429,28 +26429,28 @@
         <v>8233.30941554767</v>
       </c>
       <c r="F4" t="n">
-        <v>8233.309415547668</v>
+        <v>4890.851381993001</v>
       </c>
       <c r="G4" t="n">
-        <v>8233.309415547668</v>
+        <v>4890.851381993015</v>
       </c>
       <c r="H4" t="n">
-        <v>4967.456039976125</v>
+        <v>4890.851381993015</v>
       </c>
       <c r="I4" t="n">
-        <v>4890.851381993015</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="J4" t="n">
-        <v>4890.851381993015</v>
+        <v>13631.10511022452</v>
       </c>
       <c r="K4" t="n">
-        <v>4890.851381993015</v>
+        <v>13631.10511022452</v>
       </c>
       <c r="L4" t="n">
-        <v>4890.851381993015</v>
+        <v>13631.10511022452</v>
       </c>
       <c r="M4" t="n">
-        <v>4890.851381993015</v>
+        <v>13631.10511022452</v>
       </c>
       <c r="N4" t="n">
         <v>4890.851381993015</v>
@@ -26459,7 +26459,7 @@
         <v>4890.851381993015</v>
       </c>
       <c r="P4" t="n">
-        <v>4890.851381993015</v>
+        <v>4890.851381993003</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26481,37 +26481,37 @@
         <v>61958.82776879413</v>
       </c>
       <c r="F5" t="n">
-        <v>61958.82776879413</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="G5" t="n">
-        <v>61958.82776879413</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74015.36825377261</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="J5" t="n">
+        <v>83858.88286637573</v>
+      </c>
+      <c r="K5" t="n">
+        <v>83858.88286637573</v>
+      </c>
+      <c r="L5" t="n">
+        <v>83858.88286637573</v>
+      </c>
+      <c r="M5" t="n">
+        <v>83858.88286637573</v>
+      </c>
+      <c r="N5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="J5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="K5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="L5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="M5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="N5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-446192.8225083687</v>
+        <v>-452261.2362541878</v>
       </c>
       <c r="C6" t="n">
-        <v>143775.0567061758</v>
+        <v>137706.6429603567</v>
       </c>
       <c r="D6" t="n">
-        <v>143775.056706176</v>
+        <v>137706.6429603567</v>
       </c>
       <c r="E6" t="n">
-        <v>-227079.6891884896</v>
+        <v>-231997.8382477924</v>
       </c>
       <c r="F6" t="n">
-        <v>241965.7665617468</v>
+        <v>111963.738373238</v>
       </c>
       <c r="G6" t="n">
-        <v>241965.7665617467</v>
+        <v>258323.7177294736</v>
       </c>
       <c r="H6" t="n">
-        <v>124085.1966240246</v>
+        <v>258323.7177294733</v>
       </c>
       <c r="I6" t="n">
-        <v>258541.0759262221</v>
+        <v>178376.6234586572</v>
       </c>
       <c r="J6" t="n">
-        <v>85376.68783494121</v>
+        <v>142986.2213265088</v>
       </c>
       <c r="K6" t="n">
-        <v>261799.9070275342</v>
+        <v>265511.4849058675</v>
       </c>
       <c r="L6" t="n">
-        <v>261799.9070275343</v>
+        <v>265511.4849058674</v>
       </c>
       <c r="M6" t="n">
-        <v>261799.9070275341</v>
+        <v>265511.4849058675</v>
       </c>
       <c r="N6" t="n">
-        <v>261799.9070275342</v>
+        <v>258323.7177294731</v>
       </c>
       <c r="O6" t="n">
-        <v>261799.9070275344</v>
+        <v>258323.717729473</v>
       </c>
       <c r="P6" t="n">
-        <v>225537.358833293</v>
+        <v>258323.7177294732</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>961.5670451980343</v>
       </c>
       <c r="F3" t="n">
-        <v>961.5670451980343</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
-        <v>961.5670451980343</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1086.755407162286</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26801,37 +26801,37 @@
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>827.6990193689928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
+        <v>1194.51293060493</v>
+      </c>
+      <c r="J4" t="n">
+        <v>988.51563805003</v>
+      </c>
+      <c r="K4" t="n">
+        <v>988.51563805003</v>
+      </c>
+      <c r="L4" t="n">
+        <v>988.51563805003</v>
+      </c>
+      <c r="M4" t="n">
+        <v>988.51563805003</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26971,16 +26971,16 @@
         <v>583.8233809809476</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>128.2096553952645</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>125.1883619642522</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.021293431011827</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26998,10 +26998,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27023,19 +27023,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>157.1141826477375</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4117466144372</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3.702436033299705</v>
+        <v>363.1114752026372</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>468.2899801996556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>153.4117466144374</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27269,13 +27269,13 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>157.1141826477375</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>153.4117466144372</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.865596161600135</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H14" t="n">
-        <v>39.58853668998739</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I14" t="n">
-        <v>149.0283960200894</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>328.0876422206098</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>491.7183277411436</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L14" t="n">
-        <v>610.0200662717139</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M14" t="n">
-        <v>678.7648620105701</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N14" t="n">
-        <v>689.7479871047167</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O14" t="n">
-        <v>651.3094652728053</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P14" t="n">
-        <v>555.8775600333018</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q14" t="n">
-        <v>417.4408974959969</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R14" t="n">
-        <v>242.8222548861147</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>88.08727253246316</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T14" t="n">
-        <v>16.9216471974046</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3092476929280107</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.068276285897659</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>19.97519465590634</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>71.21038966796765</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J15" t="n">
-        <v>195.4067520812345</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>333.9812632363776</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L15" t="n">
-        <v>449.0790242691386</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M15" t="n">
-        <v>524.0540396329286</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N15" t="n">
-        <v>537.9241906905494</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O15" t="n">
-        <v>492.0955424609223</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P15" t="n">
-        <v>394.9500567342644</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
-        <v>264.0136536173924</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R15" t="n">
-        <v>128.4145574700319</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>38.4173248718271</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T15" t="n">
-        <v>8.336604854122577</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1360708082827408</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.733973360193176</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>15.41659951153571</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>52.1453079592639</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J16" t="n">
-        <v>122.5919165656576</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K16" t="n">
-        <v>201.4561776660799</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>257.7945484781746</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M16" t="n">
-        <v>271.8082059073722</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N16" t="n">
-        <v>265.3452142921069</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>245.0892527662138</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>209.7161962182728</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>145.1966238249032</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>77.96574763195862</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S16" t="n">
-        <v>30.21842664991198</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>7.408795266279934</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0945803651014461</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.865596161600135</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>39.58853668998739</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>149.0283960200894</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>328.0876422206098</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>491.7183277411436</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>610.0200662717139</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>678.7648620105701</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>689.7479871047167</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>651.3094652728053</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>555.8775600333018</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>417.4408974959969</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>242.8222548861147</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>88.08727253246316</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>16.9216471974046</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3092476929280107</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.068276285897659</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>19.97519465590634</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>71.21038966796765</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>195.4067520812345</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>333.9812632363776</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>449.0790242691386</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>524.0540396329286</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>537.9241906905494</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>492.0955424609223</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>394.9500567342644</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>264.0136536173924</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>128.4145574700319</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>38.4173248718271</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>8.336604854122577</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1360708082827408</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.733973360193176</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>15.41659951153571</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>52.1453079592639</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
-        <v>122.5919165656576</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>201.4561776660799</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>257.7945484781746</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>271.8082059073722</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>265.3452142921069</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>245.0892527662138</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>209.7161962182728</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>145.1966238249032</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>77.96574763195862</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>30.21842664991198</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>7.408795266279934</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0945803651014461</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.368865958441349</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.74264849688748</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.4307048628103</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>370.8020371402618</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>555.7361331610842</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>689.4398147367339</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>767.1346347251651</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>779.5476751295867</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>736.1047642553355</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>628.2483859063145</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>471.7883737696336</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>274.4357762619417</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.55553302798235</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.12471073307702</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3495092766753079</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.337549366349069</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.57580572237127</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.48141458701839</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>220.8471530724794</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>377.462960617867</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>507.5455323732924</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>592.281696903446</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>607.9576310312871</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>556.1624582295524</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>446.3694048776569</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.3861261325584</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.133108903673</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.41895423898378</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.42196433190699</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1537861425229651</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.959722865374615</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.42371783942159</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>58.93421126053843</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
-        <v>138.5524065819853</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>227.6841656317052</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>291.3573430939678</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>307.1954669786771</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>299.8910453895538</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>276.9979191894956</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.0195727358533</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.1000664815053</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.11626629220765</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.15262484475577</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.373361333873351</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1068939744749791</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,10 +33970,10 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33982,28 +33982,28 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.6601607549767</v>
+        <v>68.56912541456785</v>
       </c>
       <c r="K12" t="n">
-        <v>294.0960148009282</v>
+        <v>420.187050141337</v>
       </c>
       <c r="L12" t="n">
         <v>310.5246444892645</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>147.0417376939235</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>271.628476696163</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L14" t="n">
-        <v>374.2536513017266</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M14" t="n">
-        <v>448.4186287832974</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N14" t="n">
-        <v>460.3349235081258</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O14" t="n">
-        <v>421.2112538511185</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P14" t="n">
-        <v>324.6445642780323</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q14" t="n">
-        <v>195.1352076215474</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R14" t="n">
-        <v>27.23671707198255</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>68.56912541456785</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K15" t="n">
-        <v>196.1398242620186</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L15" t="n">
-        <v>674.2872727545556</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>381.9200057109103</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N15" t="n">
-        <v>448.6876406397035</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O15" t="n">
-        <v>349.4992980164779</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P15" t="n">
-        <v>260.9756493199341</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q15" t="n">
-        <v>124.0318795313709</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R15" t="n">
-        <v>28.25672331738873</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>29.2327364489848</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K16" t="n">
-        <v>179.186685840197</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L16" t="n">
-        <v>285.3845737384908</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>311.3920828692127</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>309.4773866713355</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
-        <v>269.6743806802535</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P16" t="n">
-        <v>206.9947554831663</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>59.0345805732088</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>147.0417376939235</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>271.628476696163</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>374.2536513017266</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>448.4186287832974</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>460.3349235081258</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>421.2112538511185</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>324.6445642780323</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>195.1352076215474</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>27.23671707198255</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>68.56912541456785</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>196.1398242620186</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>310.5246444892645</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>548.339725178738</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>674.2872727545556</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>349.4992980164779</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>260.9756493199341</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>124.0318795313709</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>29.2327364489848</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>179.186685840197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>285.3845737384908</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>311.3920828692127</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>309.4773866713355</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>269.6743806802535</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>206.9947554831663</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>59.0345805732088</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>189.7561326135755</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>335.6462821161037</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>453.6733997667466</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>536.7884014978924</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>550.1346115329957</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>506.0065528336487</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>397.015390151045</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>249.4826838951841</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>58.85023844780955</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.00952640581272</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>239.621521643508</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>368.9911525934182</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>450.1476629814277</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>476.6159189479538</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>413.5662137851079</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>312.3949974633267</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.4043520465369</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19322646531248</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>205.4146738058223</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>318.9473683542839</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>346.7793439405177</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.0232177687824</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>301.5830471035353</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.2981320007468</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>77.93802322981087</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,16 +36363,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36612,13 +36612,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>573.7426433216128</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
@@ -36846,16 +36846,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>683.03365799046</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
@@ -37080,19 +37080,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>573.7426433216128</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37314,10 +37314,10 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>724.8969847272812</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37630,19 +37630,19 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222388</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
